--- a/数据整理/stocks/其他/VN000000VPB6-VietnamProsperityJSCBank.xlsx
+++ b/数据整理/stocks/其他/VN000000VPB6-VietnamProsperityJSCBank.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>008763</t>
-  </si>
-  <si>
-    <t>008764</t>
-  </si>
-  <si>
-    <t>天弘越南市场股票（QDII）A</t>
-  </si>
-  <si>
-    <t>天弘越南市场股票（QDII）C</t>
-  </si>
-  <si>
-    <t>37.48</t>
-  </si>
-  <si>
-    <t>18.24</t>
-  </si>
-  <si>
-    <t>91.18</t>
-  </si>
-  <si>
-    <t>5.17</t>
-  </si>
-  <si>
-    <t>1.9377</t>
-  </si>
-  <si>
-    <t>0.9430</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008763</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘越南市场股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9377</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008764</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘越南市场股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9430</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008763</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘越南市场股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008764</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘越南市场股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9149</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/VN000000VPB6-VietnamProsperityJSCBank.xlsx
+++ b/数据整理/stocks/其他/VN000000VPB6-VietnamProsperityJSCBank.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/VN000000VPB6-VietnamProsperityJSCBank.xlsx
+++ b/数据整理/stocks/其他/VN000000VPB6-VietnamProsperityJSCBank.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -716,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,17 +728,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -747,14 +768,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.83</v>
+          <t>008764</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘越南市场股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7619</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -763,13 +806,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>008763</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘越南市场股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
         <v>2.88</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/VN000000VPB6-VietnamProsperityJSCBank.xlsx
+++ b/数据整理/stocks/其他/VN000000VPB6-VietnamProsperityJSCBank.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -849,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,14 +901,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.85</v>
+          <t>008763</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘越南市场股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2180</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -896,14 +939,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>008764</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘越南市场股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8428</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -912,13 +1045,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>2.88</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/VN000000VPB6-VietnamProsperityJSCBank.xlsx
+++ b/数据整理/stocks/其他/VN000000VPB6-VietnamProsperityJSCBank.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.06</v>
+          <t>008763</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘越南市场股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7921</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1029,14 +1072,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>008764</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘越南市场股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7781</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.85</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="4">
@@ -1045,14 +1178,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5">
@@ -1061,13 +1194,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>2.88</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/VN000000VPB6-VietnamProsperityJSCBank.xlsx
+++ b/数据整理/stocks/其他/VN000000VPB6-VietnamProsperityJSCBank.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,129 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008763</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘越南市场股票（QDII）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>37.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9377</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.57</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008764</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘越南市场股票（QDII）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18.24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9430</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.88</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -608,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -648,22 +632,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.85</t>
+          <t>35.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.33</t>
+          <t>88.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9125</t>
+          <t>1.7921</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -686,22 +670,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>15.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.33</t>
+          <t>88.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9149</t>
+          <t>0.7781</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -770,36 +754,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008764</t>
+          <t>008763</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘越南市场股票（QDII）C</t>
+          <t>天弘越南市场股票（QDII）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.82</t>
+          <t>37.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>92.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7619</t>
+          <t>2.2180</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -808,36 +792,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008763</t>
+          <t>008764</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘越南市场股票（QDII）A</t>
+          <t>天弘越南市场股票（QDII）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>92.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0906</t>
+          <t>0.8428</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -902,36 +886,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008763</t>
+          <t>008764</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘越南市场股票（QDII）A</t>
+          <t>天弘越南市场股票（QDII）C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37.53</t>
+          <t>16.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2180</t>
+          <t>0.7619</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -940,36 +924,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008764</t>
+          <t>008763</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘越南市场股票（QDII）C</t>
+          <t>天弘越南市场股票（QDII）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8428</t>
+          <t>0.0906</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +988,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1044,22 +1028,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.77</t>
+          <t>41.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.04</t>
+          <t>90.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7921</t>
+          <t>1.9125</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1082,22 +1066,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.53</t>
+          <t>20.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.04</t>
+          <t>90.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7781</t>
+          <t>0.9149</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1115,112 +1099,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.57</v>
+          <t>008763</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘越南市场股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9377</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.88</v>
+          <t>008764</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘越南市场股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9430</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/VN000000VPB6-VietnamProsperityJSCBank.xlsx
+++ b/数据整理/stocks/其他/VN000000VPB6-VietnamProsperityJSCBank.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.57</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3.06</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.85</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>2.88</v>
       </c>
     </row>
@@ -632,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.77</t>
+          <t>20.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.04</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7921</t>
+          <t>0.9934</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -670,26 +687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.53</t>
+          <t>15.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.04</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7781</t>
+          <t>0.7300</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -764,26 +781,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37.53</t>
+          <t>35.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>88.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2180</t>
+          <t>1.7921</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -802,26 +819,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>15.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>88.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8428</t>
+          <t>0.7781</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -886,36 +903,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008764</t>
+          <t>008763</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘越南市场股票（QDII）C</t>
+          <t>天弘越南市场股票（QDII）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.82</t>
+          <t>37.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>92.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7619</t>
+          <t>2.2180</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -924,36 +941,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008763</t>
+          <t>008764</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘越南市场股票（QDII）A</t>
+          <t>天弘越南市场股票（QDII）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>92.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0906</t>
+          <t>0.8428</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +1005,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1018,32 +1035,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008763</t>
+          <t>008764</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘越南市场股票（QDII）A</t>
+          <t>天弘越南市场股票（QDII）C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.85</t>
+          <t>16.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.33</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9125</t>
+          <t>0.7619</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1056,32 +1073,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008764</t>
+          <t>008763</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘越南市场股票（QDII）C</t>
+          <t>天弘越南市场股票（QDII）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.33</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9149</t>
+          <t>0.0906</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1094,6 +1111,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008763</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘越南市场股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008764</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘越南市场股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9149</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/VN000000VPB6-VietnamProsperityJSCBank.xlsx
+++ b/数据整理/stocks/其他/VN000000VPB6-VietnamProsperityJSCBank.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.72</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.57</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>3.06</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.85</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>2.88</v>
       </c>
     </row>
@@ -649,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.44</t>
+          <t>21.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>92.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9934</t>
+          <t>1.1057</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -687,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.02</t>
+          <t>16.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>92.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7300</t>
+          <t>0.8328</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -781,26 +798,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.77</t>
+          <t>20.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.04</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7921</t>
+          <t>0.9934</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -819,26 +836,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.53</t>
+          <t>15.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.04</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7781</t>
+          <t>0.7300</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -913,26 +930,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37.53</t>
+          <t>35.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>88.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2180</t>
+          <t>1.7921</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -951,26 +968,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>15.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>88.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8428</t>
+          <t>0.7781</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1035,36 +1052,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008764</t>
+          <t>008763</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘越南市场股票（QDII）C</t>
+          <t>天弘越南市场股票（QDII）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.82</t>
+          <t>37.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>92.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7619</t>
+          <t>2.2180</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1073,36 +1090,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008763</t>
+          <t>008764</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘越南市场股票（QDII）A</t>
+          <t>天弘越南市场股票（QDII）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>92.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0906</t>
+          <t>0.8428</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1137,7 +1154,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1167,32 +1184,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008763</t>
+          <t>008764</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘越南市场股票（QDII）A</t>
+          <t>天弘越南市场股票（QDII）C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.85</t>
+          <t>16.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.33</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9125</t>
+          <t>0.7619</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1205,32 +1222,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008764</t>
+          <t>008763</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘越南市场股票（QDII）C</t>
+          <t>天弘越南市场股票（QDII）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.33</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9149</t>
+          <t>0.0906</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1243,6 +1260,138 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008763</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘越南市场股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008764</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘越南市场股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9149</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
